--- a/dmi/InitialConditions/historical/Historical_Annual.xlsx
+++ b/dmi/InitialConditions/historical/Historical_Annual.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CRSS\CRSS.Models\crss.dev_2019PowerRunPrep\dmi\InitialConditions\historical\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CRSS\CRSS.Models\2020Verification_GIT\dmi\InitialConditions\historical\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17720" windowHeight="11310"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="21600" windowHeight="11390"/>
   </bookViews>
   <sheets>
     <sheet name="Historical" sheetId="39" r:id="rId1"/>
@@ -23,8 +23,66 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>jkhaya</author>
+  </authors>
+  <commentList>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>jkhaya:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+pre-2010: Brock was called 'Drop 2'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>jkhaya:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Sum of SNWA EC ICS, EC Trib ICS, and Trib Conservation</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>PowellOperation.PowellWYRelease</t>
   </si>
@@ -41,13 +99,67 @@
     <t>MWD ICS.InitialBalance</t>
   </si>
   <si>
-    <t>MWD ICS.YDPInitialBalance</t>
-  </si>
-  <si>
     <t>IID ICS.InitialBalance</t>
   </si>
   <si>
     <t>Nevada ICS.InitialBalance</t>
+  </si>
+  <si>
+    <t>MWD ICS.DCPInitialBalance</t>
+  </si>
+  <si>
+    <t>MWD ICS.CoachellaDCPInitialBalance</t>
+  </si>
+  <si>
+    <t>Nevada ICS.DCPInitialBalance</t>
+  </si>
+  <si>
+    <t>Arizona ICS.CAWCDInitialBalance</t>
+  </si>
+  <si>
+    <t>Arizona ICS.CRITInitialBalance</t>
+  </si>
+  <si>
+    <t>Arizona ICS.DCPInitialBalance</t>
+  </si>
+  <si>
+    <t>Arizona ICS.GRICInitialBalance</t>
+  </si>
+  <si>
+    <t>Arizona ICS.MVIDDInitialBalance</t>
+  </si>
+  <si>
+    <t>MWD ICS.YDPInitialBalance</t>
+  </si>
+  <si>
+    <t>Arizona ICS.BICSInitialBalance</t>
+  </si>
+  <si>
+    <t>Arizona ICS.BrockInitialBalance</t>
+  </si>
+  <si>
+    <t>Arizona ICS.YDPInitialBalance</t>
+  </si>
+  <si>
+    <t>MWD ICS.BrockInitialBalance</t>
+  </si>
+  <si>
+    <t>MWD ICS.BICSInitialBalance</t>
+  </si>
+  <si>
+    <t>IID ICS.BICSInitialBalance</t>
+  </si>
+  <si>
+    <t>Nevada ICS.BICSInitialBalance</t>
+  </si>
+  <si>
+    <t>Nevada ICS.BrockInitialBalance</t>
+  </si>
+  <si>
+    <t>Nevada ICS.YDPInitialBalance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
   </si>
 </sst>
 </file>
@@ -57,7 +169,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +183,27 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -94,10 +227,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,20 +515,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I140"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="5" width="11.26953125" customWidth="1"/>
+    <col min="6" max="6" width="20.453125" customWidth="1"/>
+    <col min="7" max="7" width="23.90625" customWidth="1"/>
+    <col min="8" max="8" width="32.08984375" style="2" customWidth="1"/>
+    <col min="9" max="11" width="23.81640625" style="2" customWidth="1"/>
+    <col min="12" max="13" width="18" customWidth="1"/>
+    <col min="14" max="14" width="22" customWidth="1"/>
+    <col min="15" max="18" width="25.453125" customWidth="1"/>
+    <col min="19" max="19" width="28.6328125" customWidth="1"/>
+    <col min="20" max="20" width="25.90625" customWidth="1"/>
+    <col min="21" max="21" width="25.54296875" customWidth="1"/>
+    <col min="22" max="22" width="26.1796875" customWidth="1"/>
+    <col min="23" max="23" width="28.08984375" customWidth="1"/>
+    <col min="24" max="24" width="25.81640625" customWidth="1"/>
+    <col min="25" max="25" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -408,16 +560,70 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W1" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>8037</v>
       </c>
@@ -433,8 +639,65 @@
       <c r="G2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>8402</v>
       </c>
@@ -450,14 +713,65 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>8767</v>
       </c>
@@ -473,14 +787,65 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>9133</v>
       </c>
@@ -496,14 +861,65 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>9498</v>
       </c>
@@ -519,14 +935,65 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>9863</v>
       </c>
@@ -542,14 +1009,65 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>10228</v>
       </c>
@@ -565,14 +1083,65 @@
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>10594</v>
       </c>
@@ -588,14 +1157,65 @@
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>10959</v>
       </c>
@@ -611,14 +1231,65 @@
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>11324</v>
       </c>
@@ -634,14 +1305,65 @@
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11689</v>
       </c>
@@ -657,14 +1379,65 @@
       <c r="G12">
         <v>0</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12055</v>
       </c>
@@ -680,14 +1453,65 @@
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12420</v>
       </c>
@@ -703,14 +1527,65 @@
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>12785</v>
       </c>
@@ -726,14 +1601,65 @@
       <c r="G15">
         <v>0</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>13150</v>
       </c>
@@ -749,14 +1675,65 @@
       <c r="G16">
         <v>0</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>13516</v>
       </c>
@@ -772,14 +1749,65 @@
       <c r="G17">
         <v>0</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>13881</v>
       </c>
@@ -795,14 +1823,65 @@
       <c r="G18">
         <v>0</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>14246</v>
       </c>
@@ -818,14 +1897,65 @@
       <c r="G19">
         <v>0</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>14611</v>
       </c>
@@ -841,14 +1971,65 @@
       <c r="G20">
         <v>0</v>
       </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>14977</v>
       </c>
@@ -864,14 +2045,65 @@
       <c r="G21">
         <v>0</v>
       </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>15342</v>
       </c>
@@ -887,14 +2119,65 @@
       <c r="G22">
         <v>0</v>
       </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>15707</v>
       </c>
@@ -910,14 +2193,65 @@
       <c r="G23">
         <v>0</v>
       </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>16072</v>
       </c>
@@ -933,14 +2267,65 @@
       <c r="G24">
         <v>0</v>
       </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>16438</v>
       </c>
@@ -956,14 +2341,65 @@
       <c r="G25">
         <v>0</v>
       </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>16803</v>
       </c>
@@ -979,14 +2415,65 @@
       <c r="G26">
         <v>0</v>
       </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>17168</v>
       </c>
@@ -1002,14 +2489,65 @@
       <c r="G27">
         <v>0</v>
       </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>17533</v>
       </c>
@@ -1025,14 +2563,65 @@
       <c r="G28">
         <v>0</v>
       </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>17899</v>
       </c>
@@ -1048,14 +2637,65 @@
       <c r="G29">
         <v>0</v>
       </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>18264</v>
       </c>
@@ -1071,14 +2711,65 @@
       <c r="G30">
         <v>0</v>
       </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>18629</v>
       </c>
@@ -1094,14 +2785,65 @@
       <c r="G31">
         <v>0</v>
       </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>18994</v>
       </c>
@@ -1117,14 +2859,65 @@
       <c r="G32">
         <v>0</v>
       </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>19360</v>
       </c>
@@ -1140,14 +2933,65 @@
       <c r="G33">
         <v>0</v>
       </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>19725</v>
       </c>
@@ -1163,14 +3007,65 @@
       <c r="G34">
         <v>0</v>
       </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>20090</v>
       </c>
@@ -1186,14 +3081,65 @@
       <c r="G35">
         <v>0</v>
       </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>20455</v>
       </c>
@@ -1209,14 +3155,65 @@
       <c r="G36">
         <v>0</v>
       </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>20821</v>
       </c>
@@ -1232,14 +3229,65 @@
       <c r="G37">
         <v>0</v>
       </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>21186</v>
       </c>
@@ -1255,14 +3303,65 @@
       <c r="G38">
         <v>0</v>
       </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>21551</v>
       </c>
@@ -1278,14 +3377,65 @@
       <c r="G39">
         <v>0</v>
       </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0</v>
+      </c>
+      <c r="K39" s="2">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>21916</v>
       </c>
@@ -1301,14 +3451,65 @@
       <c r="G40">
         <v>0</v>
       </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0</v>
+      </c>
+      <c r="K40" s="2">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>22282</v>
       </c>
@@ -1324,14 +3525,65 @@
       <c r="G41">
         <v>0</v>
       </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0</v>
+      </c>
+      <c r="K41" s="2">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>22647</v>
       </c>
@@ -1347,14 +3599,65 @@
       <c r="G42">
         <v>0</v>
       </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>23012</v>
       </c>
@@ -1370,14 +3673,65 @@
       <c r="G43">
         <v>0</v>
       </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>23377</v>
       </c>
@@ -1396,14 +3750,65 @@
       <c r="G44">
         <v>0</v>
       </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>23743</v>
       </c>
@@ -1422,14 +3827,65 @@
       <c r="G45">
         <v>0</v>
       </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>24108</v>
       </c>
@@ -1448,14 +3904,65 @@
       <c r="G46">
         <v>0</v>
       </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>24473</v>
       </c>
@@ -1474,14 +3981,65 @@
       <c r="G47">
         <v>0</v>
       </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>24838</v>
       </c>
@@ -1500,14 +4058,65 @@
       <c r="G48">
         <v>0</v>
       </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H48" s="2">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2">
+        <v>0</v>
+      </c>
+      <c r="K48" s="2">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>25204</v>
       </c>
@@ -1526,14 +4135,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H49" s="2">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0</v>
+      </c>
+      <c r="K49" s="2">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>25569</v>
       </c>
@@ -1552,14 +4212,65 @@
       <c r="G50">
         <v>0</v>
       </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0</v>
+      </c>
+      <c r="K50" s="2">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>25934</v>
       </c>
@@ -1578,14 +4289,65 @@
       <c r="G51">
         <v>0</v>
       </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H51" s="2">
+        <v>0</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2">
+        <v>0</v>
+      </c>
+      <c r="K51" s="2">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>26299</v>
       </c>
@@ -1604,14 +4366,65 @@
       <c r="G52">
         <v>0</v>
       </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H52" s="2">
+        <v>0</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2">
+        <v>0</v>
+      </c>
+      <c r="K52" s="2">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>26665</v>
       </c>
@@ -1630,14 +4443,65 @@
       <c r="G53">
         <v>0</v>
       </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H53" s="2">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2">
+        <v>0</v>
+      </c>
+      <c r="K53" s="2">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>27030</v>
       </c>
@@ -1656,14 +4520,65 @@
       <c r="G54">
         <v>0</v>
       </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H54" s="2">
+        <v>0</v>
+      </c>
+      <c r="I54" s="2">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2">
+        <v>0</v>
+      </c>
+      <c r="K54" s="2">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>27395</v>
       </c>
@@ -1682,14 +4597,65 @@
       <c r="G55">
         <v>0</v>
       </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H55" s="2">
+        <v>0</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2">
+        <v>0</v>
+      </c>
+      <c r="K55" s="2">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>27760</v>
       </c>
@@ -1708,14 +4674,65 @@
       <c r="G56">
         <v>0</v>
       </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0</v>
+      </c>
+      <c r="K56" s="2">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>28126</v>
       </c>
@@ -1734,14 +4751,65 @@
       <c r="G57">
         <v>0</v>
       </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H57" s="2">
+        <v>0</v>
+      </c>
+      <c r="I57" s="2">
+        <v>0</v>
+      </c>
+      <c r="J57" s="2">
+        <v>0</v>
+      </c>
+      <c r="K57" s="2">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>28491</v>
       </c>
@@ -1760,14 +4828,65 @@
       <c r="G58">
         <v>0</v>
       </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H58" s="2">
+        <v>0</v>
+      </c>
+      <c r="I58" s="2">
+        <v>0</v>
+      </c>
+      <c r="J58" s="2">
+        <v>0</v>
+      </c>
+      <c r="K58" s="2">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>28856</v>
       </c>
@@ -1786,14 +4905,65 @@
       <c r="G59">
         <v>0</v>
       </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H59" s="2">
+        <v>0</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0</v>
+      </c>
+      <c r="J59" s="2">
+        <v>0</v>
+      </c>
+      <c r="K59" s="2">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>29221</v>
       </c>
@@ -1812,14 +4982,65 @@
       <c r="G60">
         <v>0</v>
       </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H60" s="2">
+        <v>0</v>
+      </c>
+      <c r="I60" s="2">
+        <v>0</v>
+      </c>
+      <c r="J60" s="2">
+        <v>0</v>
+      </c>
+      <c r="K60" s="2">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>29587</v>
       </c>
@@ -1838,14 +5059,65 @@
       <c r="G61">
         <v>0</v>
       </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H61" s="2">
+        <v>0</v>
+      </c>
+      <c r="I61" s="2">
+        <v>0</v>
+      </c>
+      <c r="J61" s="2">
+        <v>0</v>
+      </c>
+      <c r="K61" s="2">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>29952</v>
       </c>
@@ -1864,14 +5136,65 @@
       <c r="G62">
         <v>0</v>
       </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H62" s="2">
+        <v>0</v>
+      </c>
+      <c r="I62" s="2">
+        <v>0</v>
+      </c>
+      <c r="J62" s="2">
+        <v>0</v>
+      </c>
+      <c r="K62" s="2">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>30317</v>
       </c>
@@ -1890,14 +5213,65 @@
       <c r="G63">
         <v>0</v>
       </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H63" s="2">
+        <v>0</v>
+      </c>
+      <c r="I63" s="2">
+        <v>0</v>
+      </c>
+      <c r="J63" s="2">
+        <v>0</v>
+      </c>
+      <c r="K63" s="2">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>30682</v>
       </c>
@@ -1916,14 +5290,65 @@
       <c r="G64">
         <v>0</v>
       </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H64" s="2">
+        <v>0</v>
+      </c>
+      <c r="I64" s="2">
+        <v>0</v>
+      </c>
+      <c r="J64" s="2">
+        <v>0</v>
+      </c>
+      <c r="K64" s="2">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>31048</v>
       </c>
@@ -1942,14 +5367,65 @@
       <c r="G65">
         <v>0</v>
       </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H65" s="2">
+        <v>0</v>
+      </c>
+      <c r="I65" s="2">
+        <v>0</v>
+      </c>
+      <c r="J65" s="2">
+        <v>0</v>
+      </c>
+      <c r="K65" s="2">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>31413</v>
       </c>
@@ -1968,14 +5444,65 @@
       <c r="G66">
         <v>0</v>
       </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H66" s="2">
+        <v>0</v>
+      </c>
+      <c r="I66" s="2">
+        <v>0</v>
+      </c>
+      <c r="J66" s="2">
+        <v>0</v>
+      </c>
+      <c r="K66" s="2">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>31778</v>
       </c>
@@ -1994,14 +5521,65 @@
       <c r="G67">
         <v>0</v>
       </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H67" s="2">
+        <v>0</v>
+      </c>
+      <c r="I67" s="2">
+        <v>0</v>
+      </c>
+      <c r="J67" s="2">
+        <v>0</v>
+      </c>
+      <c r="K67" s="2">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>32143</v>
       </c>
@@ -2020,14 +5598,65 @@
       <c r="G68">
         <v>0</v>
       </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H68" s="2">
+        <v>0</v>
+      </c>
+      <c r="I68" s="2">
+        <v>0</v>
+      </c>
+      <c r="J68" s="2">
+        <v>0</v>
+      </c>
+      <c r="K68" s="2">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>32509</v>
       </c>
@@ -2046,14 +5675,65 @@
       <c r="G69">
         <v>0</v>
       </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H69" s="2">
+        <v>0</v>
+      </c>
+      <c r="I69" s="2">
+        <v>0</v>
+      </c>
+      <c r="J69" s="2">
+        <v>0</v>
+      </c>
+      <c r="K69" s="2">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>32874</v>
       </c>
@@ -2072,14 +5752,65 @@
       <c r="G70">
         <v>0</v>
       </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H70" s="2">
+        <v>0</v>
+      </c>
+      <c r="I70" s="2">
+        <v>0</v>
+      </c>
+      <c r="J70" s="2">
+        <v>0</v>
+      </c>
+      <c r="K70" s="2">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>33239</v>
       </c>
@@ -2098,14 +5829,65 @@
       <c r="G71">
         <v>0</v>
       </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H71" s="2">
+        <v>0</v>
+      </c>
+      <c r="I71" s="2">
+        <v>0</v>
+      </c>
+      <c r="J71" s="2">
+        <v>0</v>
+      </c>
+      <c r="K71" s="2">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>33604</v>
       </c>
@@ -2124,14 +5906,65 @@
       <c r="G72">
         <v>0</v>
       </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H72" s="2">
+        <v>0</v>
+      </c>
+      <c r="I72" s="2">
+        <v>0</v>
+      </c>
+      <c r="J72" s="2">
+        <v>0</v>
+      </c>
+      <c r="K72" s="2">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>33970</v>
       </c>
@@ -2150,14 +5983,65 @@
       <c r="G73">
         <v>0</v>
       </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H73" s="2">
+        <v>0</v>
+      </c>
+      <c r="I73" s="2">
+        <v>0</v>
+      </c>
+      <c r="J73" s="2">
+        <v>0</v>
+      </c>
+      <c r="K73" s="2">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>34335</v>
       </c>
@@ -2176,14 +6060,65 @@
       <c r="G74">
         <v>0</v>
       </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H74" s="2">
+        <v>0</v>
+      </c>
+      <c r="I74" s="2">
+        <v>0</v>
+      </c>
+      <c r="J74" s="2">
+        <v>0</v>
+      </c>
+      <c r="K74" s="2">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>34700</v>
       </c>
@@ -2202,14 +6137,65 @@
       <c r="G75">
         <v>0</v>
       </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H75" s="2">
+        <v>0</v>
+      </c>
+      <c r="I75" s="2">
+        <v>0</v>
+      </c>
+      <c r="J75" s="2">
+        <v>0</v>
+      </c>
+      <c r="K75" s="2">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>35065</v>
       </c>
@@ -2228,14 +6214,65 @@
       <c r="G76">
         <v>0</v>
       </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H76" s="2">
+        <v>0</v>
+      </c>
+      <c r="I76" s="2">
+        <v>0</v>
+      </c>
+      <c r="J76" s="2">
+        <v>0</v>
+      </c>
+      <c r="K76" s="2">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>35431</v>
       </c>
@@ -2254,14 +6291,65 @@
       <c r="G77">
         <v>0</v>
       </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H77" s="2">
+        <v>0</v>
+      </c>
+      <c r="I77" s="2">
+        <v>0</v>
+      </c>
+      <c r="J77" s="2">
+        <v>0</v>
+      </c>
+      <c r="K77" s="2">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>35796</v>
       </c>
@@ -2280,14 +6368,65 @@
       <c r="G78">
         <v>0</v>
       </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H78" s="2">
+        <v>0</v>
+      </c>
+      <c r="I78" s="2">
+        <v>0</v>
+      </c>
+      <c r="J78" s="2">
+        <v>0</v>
+      </c>
+      <c r="K78" s="2">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>36161</v>
       </c>
@@ -2306,14 +6445,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H79" s="2">
+        <v>0</v>
+      </c>
+      <c r="I79" s="2">
+        <v>0</v>
+      </c>
+      <c r="J79" s="2">
+        <v>0</v>
+      </c>
+      <c r="K79" s="2">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>36526</v>
       </c>
@@ -2332,14 +6522,65 @@
       <c r="G80">
         <v>0</v>
       </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H80" s="2">
+        <v>0</v>
+      </c>
+      <c r="I80" s="2">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2">
+        <v>0</v>
+      </c>
+      <c r="K80" s="2">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>36892</v>
       </c>
@@ -2358,14 +6599,65 @@
       <c r="G81">
         <v>0</v>
       </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H81" s="2">
+        <v>0</v>
+      </c>
+      <c r="I81" s="2">
+        <v>0</v>
+      </c>
+      <c r="J81" s="2">
+        <v>0</v>
+      </c>
+      <c r="K81" s="2">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>0</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>37257</v>
       </c>
@@ -2384,14 +6676,65 @@
       <c r="G82">
         <v>0</v>
       </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H82" s="2">
+        <v>0</v>
+      </c>
+      <c r="I82" s="2">
+        <v>0</v>
+      </c>
+      <c r="J82" s="2">
+        <v>0</v>
+      </c>
+      <c r="K82" s="2">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>0</v>
+      </c>
+      <c r="Y82">
+        <v>0</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>37622</v>
       </c>
@@ -2410,14 +6753,65 @@
       <c r="G83">
         <v>0</v>
       </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H83" s="2">
+        <v>0</v>
+      </c>
+      <c r="I83" s="2">
+        <v>0</v>
+      </c>
+      <c r="J83" s="2">
+        <v>0</v>
+      </c>
+      <c r="K83" s="2">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
+      <c r="Y83">
+        <v>0</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>37987</v>
       </c>
@@ -2436,14 +6830,65 @@
       <c r="G84">
         <v>0</v>
       </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H84" s="2">
+        <v>0</v>
+      </c>
+      <c r="I84" s="2">
+        <v>0</v>
+      </c>
+      <c r="J84" s="2">
+        <v>0</v>
+      </c>
+      <c r="K84" s="2">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="X84">
+        <v>0</v>
+      </c>
+      <c r="Y84">
+        <v>0</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>38353</v>
       </c>
@@ -2462,14 +6907,65 @@
       <c r="G85">
         <v>0</v>
       </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H85" s="2">
+        <v>0</v>
+      </c>
+      <c r="I85" s="2">
+        <v>0</v>
+      </c>
+      <c r="J85" s="2">
+        <v>0</v>
+      </c>
+      <c r="K85" s="2">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <v>0</v>
+      </c>
+      <c r="Y85">
+        <v>0</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>38718</v>
       </c>
@@ -2482,20 +6978,71 @@
       <c r="E86">
         <v>0</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="2">
         <v>40262</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
-      <c r="H86">
-        <v>0</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H86" s="2">
+        <v>0</v>
+      </c>
+      <c r="I86" s="2">
+        <v>0</v>
+      </c>
+      <c r="J86" s="2">
+        <v>0</v>
+      </c>
+      <c r="K86" s="2">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="X86">
+        <v>0</v>
+      </c>
+      <c r="Y86">
+        <v>0</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>39083</v>
       </c>
@@ -2508,20 +7055,71 @@
       <c r="E87">
         <v>0</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="2">
         <v>41398</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
-      <c r="H87">
-        <v>0</v>
-      </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H87" s="2">
+        <v>0</v>
+      </c>
+      <c r="I87" s="2">
+        <v>0</v>
+      </c>
+      <c r="J87" s="2">
+        <v>0</v>
+      </c>
+      <c r="K87" s="2">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>0</v>
+      </c>
+      <c r="V87">
+        <v>0</v>
+      </c>
+      <c r="W87">
+        <v>0</v>
+      </c>
+      <c r="X87">
+        <v>0</v>
+      </c>
+      <c r="Y87">
+        <v>0</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>39448</v>
       </c>
@@ -2537,20 +7135,71 @@
       <c r="E88">
         <v>0</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="2">
         <v>27573</v>
       </c>
       <c r="G88">
         <v>0</v>
       </c>
-      <c r="H88">
-        <v>0</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H88" s="2">
+        <v>0</v>
+      </c>
+      <c r="I88" s="2">
+        <v>0</v>
+      </c>
+      <c r="J88" s="2">
+        <v>66000</v>
+      </c>
+      <c r="K88" s="2">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88" s="2">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <v>0</v>
+      </c>
+      <c r="V88">
+        <v>0</v>
+      </c>
+      <c r="W88">
+        <v>0</v>
+      </c>
+      <c r="X88">
+        <v>0</v>
+      </c>
+      <c r="Y88">
+        <v>100000</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>39814</v>
       </c>
@@ -2566,20 +7215,71 @@
       <c r="E89">
         <v>0</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="2">
         <v>79790</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
-      <c r="H89">
+      <c r="H89" s="2">
+        <v>0</v>
+      </c>
+      <c r="I89" s="2">
+        <v>0</v>
+      </c>
+      <c r="J89" s="2">
+        <v>66000</v>
+      </c>
+      <c r="K89" s="2">
+        <v>0</v>
+      </c>
+      <c r="L89" s="2">
         <v>11400</v>
       </c>
-      <c r="I89">
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89" s="2">
         <v>20410</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>400000</v>
+      </c>
+      <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+      <c r="T89">
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <v>0</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
+      <c r="W89">
+        <v>0</v>
+      </c>
+      <c r="X89">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="2">
+        <v>100000</v>
+      </c>
+      <c r="Z89" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>40179</v>
       </c>
@@ -2595,20 +7295,71 @@
       <c r="E90">
         <v>0</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="2">
         <v>173217</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="2">
+        <v>0</v>
+      </c>
+      <c r="H90" s="2">
+        <v>0</v>
+      </c>
+      <c r="I90" s="2">
         <v>16750</v>
       </c>
-      <c r="H90">
+      <c r="J90" s="2">
+        <v>66000</v>
+      </c>
+      <c r="K90" s="2">
+        <v>0</v>
+      </c>
+      <c r="L90" s="2">
         <v>6023</v>
       </c>
-      <c r="I90">
-        <v>51087</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90" s="2">
+        <v>49163</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>400000</v>
+      </c>
+      <c r="R90">
+        <v>2094</v>
+      </c>
+      <c r="S90">
+        <v>0</v>
+      </c>
+      <c r="T90">
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <v>0</v>
+      </c>
+      <c r="V90">
+        <v>0</v>
+      </c>
+      <c r="W90">
+        <v>0</v>
+      </c>
+      <c r="X90">
+        <v>0</v>
+      </c>
+      <c r="Y90" s="2">
+        <v>100000</v>
+      </c>
+      <c r="Z90" s="2">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>40544</v>
       </c>
@@ -2624,20 +7375,71 @@
       <c r="E91">
         <v>0</v>
       </c>
-      <c r="F91">
-        <v>328553</v>
-      </c>
-      <c r="G91">
+      <c r="F91" s="2">
+        <v>344439</v>
+      </c>
+      <c r="G91" s="2">
+        <v>0</v>
+      </c>
+      <c r="H91" s="2">
+        <v>0</v>
+      </c>
+      <c r="I91" s="2">
         <v>24397</v>
       </c>
-      <c r="H91">
+      <c r="J91" s="2">
+        <v>66000</v>
+      </c>
+      <c r="K91" s="2">
+        <v>0</v>
+      </c>
+      <c r="L91" s="2">
         <v>5842</v>
       </c>
-      <c r="I91">
-        <v>82598</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="M91" s="2">
+        <v>0</v>
+      </c>
+      <c r="N91" s="2">
+        <v>75918</v>
+      </c>
+      <c r="O91" s="2">
+        <v>0</v>
+      </c>
+      <c r="P91" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="2">
+        <v>400000</v>
+      </c>
+      <c r="R91" s="2">
+        <v>3050</v>
+      </c>
+      <c r="S91" s="2">
+        <v>0</v>
+      </c>
+      <c r="T91" s="2">
+        <v>0</v>
+      </c>
+      <c r="U91" s="2">
+        <v>0</v>
+      </c>
+      <c r="V91" s="2">
+        <v>0</v>
+      </c>
+      <c r="W91" s="2">
+        <v>0</v>
+      </c>
+      <c r="X91" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="2">
+        <v>100000</v>
+      </c>
+      <c r="Z91" s="2">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>40909</v>
       </c>
@@ -2653,20 +7455,71 @@
       <c r="E92">
         <v>0</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="2">
         <v>489389</v>
       </c>
       <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92" s="2">
+        <v>0</v>
+      </c>
+      <c r="I92" s="2">
         <v>24397</v>
       </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
-      <c r="I92">
-        <v>112804</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J92" s="2">
+        <v>66000</v>
+      </c>
+      <c r="K92" s="2">
+        <v>0</v>
+      </c>
+      <c r="L92" s="2">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92" s="2">
+        <v>107032</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="2">
+        <v>400000</v>
+      </c>
+      <c r="R92" s="2">
+        <v>3050</v>
+      </c>
+      <c r="S92" s="2">
+        <v>0</v>
+      </c>
+      <c r="T92" s="2">
+        <v>0</v>
+      </c>
+      <c r="U92" s="2">
+        <v>0</v>
+      </c>
+      <c r="V92" s="2">
+        <v>0</v>
+      </c>
+      <c r="W92" s="2">
+        <v>0</v>
+      </c>
+      <c r="X92" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="2">
+        <v>100000</v>
+      </c>
+      <c r="Z92" s="2">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>41275</v>
       </c>
@@ -2682,20 +7535,71 @@
       <c r="E93">
         <v>0</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="2">
         <v>383666</v>
       </c>
       <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93" s="2">
+        <v>0</v>
+      </c>
+      <c r="I93" s="2">
         <v>24397</v>
       </c>
-      <c r="H93">
-        <v>0</v>
-      </c>
-      <c r="I93">
-        <v>141071</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J93" s="2">
+        <v>66000</v>
+      </c>
+      <c r="K93" s="2">
+        <v>0</v>
+      </c>
+      <c r="L93" s="2">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93" s="2">
+        <v>136386</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="2">
+        <v>400000</v>
+      </c>
+      <c r="R93" s="2">
+        <v>3050</v>
+      </c>
+      <c r="S93" s="2">
+        <v>0</v>
+      </c>
+      <c r="T93" s="2">
+        <v>0</v>
+      </c>
+      <c r="U93" s="2">
+        <v>0</v>
+      </c>
+      <c r="V93" s="2">
+        <v>0</v>
+      </c>
+      <c r="W93" s="2">
+        <v>0</v>
+      </c>
+      <c r="X93" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="2">
+        <v>100000</v>
+      </c>
+      <c r="Z93" s="2">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>41640</v>
       </c>
@@ -2711,20 +7615,71 @@
       <c r="E94">
         <v>0</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="2">
         <v>61764</v>
       </c>
       <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94" s="2">
+        <v>0</v>
+      </c>
+      <c r="I94" s="2">
         <v>24397</v>
       </c>
-      <c r="H94">
+      <c r="J94" s="2">
+        <v>65000</v>
+      </c>
+      <c r="K94" s="2">
+        <v>0</v>
+      </c>
+      <c r="L94" s="2">
         <v>17924</v>
       </c>
-      <c r="I94">
-        <v>164733</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94" s="2">
+        <v>161715</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="2">
+        <v>400000</v>
+      </c>
+      <c r="R94" s="2">
+        <v>3050</v>
+      </c>
+      <c r="S94">
+        <v>0</v>
+      </c>
+      <c r="T94" s="5">
+        <v>0</v>
+      </c>
+      <c r="U94" s="5">
+        <v>0</v>
+      </c>
+      <c r="V94" s="5">
+        <v>0</v>
+      </c>
+      <c r="W94">
+        <v>0</v>
+      </c>
+      <c r="X94">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="2">
+        <v>100000</v>
+      </c>
+      <c r="Z94" s="2">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>42005</v>
       </c>
@@ -2740,20 +7695,71 @@
       <c r="E95">
         <v>0</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="2">
         <v>0</v>
       </c>
       <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95" s="2">
+        <v>0</v>
+      </c>
+      <c r="I95" s="2">
         <v>24397</v>
       </c>
-      <c r="H95">
+      <c r="J95" s="2">
+        <v>65000</v>
+      </c>
+      <c r="K95" s="2">
+        <v>0</v>
+      </c>
+      <c r="L95" s="2">
         <v>17386</v>
       </c>
-      <c r="I95">
-        <v>111023</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95" s="2">
+        <v>107973</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="2">
+        <v>400000</v>
+      </c>
+      <c r="R95" s="2">
+        <v>3050</v>
+      </c>
+      <c r="S95">
+        <v>0</v>
+      </c>
+      <c r="T95" s="5">
+        <v>0</v>
+      </c>
+      <c r="U95" s="5">
+        <v>0</v>
+      </c>
+      <c r="V95" s="5">
+        <v>0</v>
+      </c>
+      <c r="W95">
+        <v>0</v>
+      </c>
+      <c r="X95" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y95" s="2">
+        <v>100000</v>
+      </c>
+      <c r="Z95" s="2">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>42370</v>
       </c>
@@ -2769,288 +7775,557 @@
       <c r="E96">
         <v>0</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="2">
         <v>4644</v>
       </c>
       <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96" s="2">
+        <v>0</v>
+      </c>
+      <c r="I96" s="2">
         <v>24397</v>
       </c>
-      <c r="H96">
+      <c r="J96" s="2">
+        <v>56008</v>
+      </c>
+      <c r="K96" s="2">
+        <v>0</v>
+      </c>
+      <c r="L96" s="2">
         <v>30017</v>
       </c>
-      <c r="I96">
-        <v>131562</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A97" s="1">
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96" s="2">
+        <v>128512</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="2">
+        <v>400000</v>
+      </c>
+      <c r="R96" s="2">
+        <v>3050</v>
+      </c>
+      <c r="S96">
+        <v>0</v>
+      </c>
+      <c r="T96" s="5">
+        <v>0</v>
+      </c>
+      <c r="U96" s="5">
+        <v>0</v>
+      </c>
+      <c r="V96" s="5">
+        <v>0</v>
+      </c>
+      <c r="W96">
+        <v>0</v>
+      </c>
+      <c r="X96" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="2">
+        <v>100000</v>
+      </c>
+      <c r="Z96" s="2">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="4">
         <v>42736</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="5">
         <v>8999985.9100000001</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="5">
         <v>1</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="5">
         <v>9169474.7899999991</v>
       </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
-      <c r="F97">
+      <c r="E97" s="5">
+        <v>0</v>
+      </c>
+      <c r="F97" s="6">
         <v>365481</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="5">
+        <v>0</v>
+      </c>
+      <c r="H97" s="6">
+        <v>0</v>
+      </c>
+      <c r="I97" s="6">
         <v>24397</v>
       </c>
-      <c r="H97">
+      <c r="J97" s="6">
+        <v>65000</v>
+      </c>
+      <c r="K97" s="6">
+        <v>0</v>
+      </c>
+      <c r="L97" s="6">
         <v>50000</v>
       </c>
-      <c r="I97">
-        <v>156207</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A98" s="1">
+      <c r="M97" s="5">
+        <v>0</v>
+      </c>
+      <c r="N97" s="6">
+        <v>155513</v>
+      </c>
+      <c r="O97" s="5">
+        <v>0</v>
+      </c>
+      <c r="P97" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="6">
+        <v>400000</v>
+      </c>
+      <c r="R97" s="6">
+        <v>3050</v>
+      </c>
+      <c r="S97" s="6">
+        <v>0</v>
+      </c>
+      <c r="T97" s="6">
+        <v>0</v>
+      </c>
+      <c r="U97" s="6">
+        <v>0</v>
+      </c>
+      <c r="V97" s="6">
+        <v>0</v>
+      </c>
+      <c r="W97" s="5">
+        <v>0</v>
+      </c>
+      <c r="X97" s="5">
+        <v>23750</v>
+      </c>
+      <c r="Y97" s="6">
+        <v>100000</v>
+      </c>
+      <c r="Z97" s="6">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="4">
         <v>43101</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="5">
         <v>8999905.9900000002</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C98" s="6">
         <v>1</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D98" s="6">
         <v>9171317.3000000007</v>
       </c>
-      <c r="E98">
-        <v>0</v>
-      </c>
-      <c r="F98">
-        <v>418166.57</v>
-      </c>
-      <c r="G98">
+      <c r="E98" s="5">
+        <v>0</v>
+      </c>
+      <c r="F98" s="6">
+        <v>511535</v>
+      </c>
+      <c r="G98" s="5">
+        <v>0</v>
+      </c>
+      <c r="H98" s="6">
+        <v>0</v>
+      </c>
+      <c r="I98" s="6">
         <v>24397</v>
       </c>
-      <c r="H98">
+      <c r="J98" s="6">
+        <v>65000</v>
+      </c>
+      <c r="K98" s="6">
+        <v>23750</v>
+      </c>
+      <c r="L98" s="6">
         <v>50000</v>
       </c>
-      <c r="I98">
-        <v>148509</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A99" s="1">
+      <c r="M98" s="5">
+        <v>23750</v>
+      </c>
+      <c r="N98" s="6">
+        <v>273648</v>
+      </c>
+      <c r="O98" s="5">
+        <v>0</v>
+      </c>
+      <c r="P98" s="5">
+        <v>23750</v>
+      </c>
+      <c r="Q98" s="6">
+        <v>400000</v>
+      </c>
+      <c r="R98" s="6">
+        <v>3050</v>
+      </c>
+      <c r="S98" s="6">
+        <v>216252</v>
+      </c>
+      <c r="T98" s="6">
+        <v>0</v>
+      </c>
+      <c r="U98" s="6">
+        <v>0</v>
+      </c>
+      <c r="V98" s="6">
+        <v>0</v>
+      </c>
+      <c r="W98" s="5">
+        <v>0</v>
+      </c>
+      <c r="X98" s="5">
+        <v>23750</v>
+      </c>
+      <c r="Y98" s="6">
+        <v>100000</v>
+      </c>
+      <c r="Z98" s="6">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="4">
         <v>43466</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5">
+        <v>0</v>
+      </c>
+      <c r="F99" s="6">
+        <v>866313</v>
+      </c>
+      <c r="G99" s="5">
+        <v>0</v>
+      </c>
+      <c r="H99" s="6">
+        <v>0</v>
+      </c>
+      <c r="I99" s="6">
+        <v>24397</v>
+      </c>
+      <c r="J99" s="6">
+        <v>65000</v>
+      </c>
+      <c r="K99" s="6">
+        <v>23750</v>
+      </c>
+      <c r="L99" s="6">
+        <v>50000</v>
+      </c>
+      <c r="M99" s="5">
+        <v>23750</v>
+      </c>
+      <c r="N99" s="6">
+        <v>359113</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="5">
+        <v>23750</v>
+      </c>
+      <c r="Q99" s="5">
+        <v>400000</v>
+      </c>
+      <c r="R99" s="5">
+        <v>3050</v>
+      </c>
+      <c r="S99" s="6">
+        <v>235757</v>
+      </c>
+      <c r="T99" s="6">
+        <v>5647</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="6">
+        <v>105300</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="5">
+        <v>23750</v>
+      </c>
+      <c r="Y99" s="5">
+        <v>100000</v>
+      </c>
+      <c r="Z99" s="5">
+        <v>3050</v>
+      </c>
+      <c r="AA99" s="5"/>
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>43831</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F100" s="2"/>
+    </row>
+    <row r="101" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>44197</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F101" s="2"/>
+    </row>
+    <row r="102" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>44562</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F102" s="2"/>
+    </row>
+    <row r="103" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>44927</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F103" s="2"/>
+    </row>
+    <row r="104" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>45292</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F104" s="2"/>
+    </row>
+    <row r="105" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>45658</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F105" s="2"/>
+    </row>
+    <row r="106" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>46023</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F106" s="2"/>
+    </row>
+    <row r="107" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>46388</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F107" s="2"/>
+    </row>
+    <row r="108" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>46753</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F108" s="2"/>
+    </row>
+    <row r="109" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>47119</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F109" s="2"/>
+    </row>
+    <row r="110" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>47484</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F110" s="2"/>
+    </row>
+    <row r="111" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>47849</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F111" s="2"/>
+    </row>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>48214</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="F112" s="2"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>48580</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="F113" s="2"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>48945</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="F114" s="2"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>49310</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="F115" s="2"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>49675</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="F116" s="2"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>50041</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="F117" s="2"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>50406</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="F118" s="2"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>50771</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="F119" s="2"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>51136</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="F120" s="2"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>51502</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="F121" s="2"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>51867</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="F122" s="2"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>52232</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="F123" s="2"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>52597</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="F124" s="2"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>52963</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="F125" s="2"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>53328</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="F126" s="2"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>53693</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="F127" s="2"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>54058</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="F128" s="2"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>54424</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="F129" s="2"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>54789</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="F130" s="2"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>55154</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="F131" s="2"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>55519</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="F132" s="2"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>55885</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="F133" s="2"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>56250</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="F134" s="2"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>56615</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="F135" s="2"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>56980</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="F136" s="2"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>57346</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="F137" s="2"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>57711</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="F138" s="2"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>58076</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="F139" s="2"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>58441</v>
       </c>
+      <c r="F140" s="2"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F141" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>